--- a/ドキュメント/DB設計書.xlsx
+++ b/ドキュメント/DB設計書.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-tomioka\Documents\Github\Training\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07DE800B-F0B9-425A-A665-D6C88600C7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373C3D12-554F-48F6-8319-9227639D5411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BEED0858-AB9D-43C3-AC05-C7886156E578}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BEED0858-AB9D-43C3-AC05-C7886156E578}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="training-menu" sheetId="1" r:id="rId1"/>
+    <sheet name="TrainingLogObject" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,239 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り数</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POF区分</t>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favorite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pof</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名称</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>training-menu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メジャー区分</t>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ismajor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Realm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Firestore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trainingdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目id</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーニング日時</t>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーニング一覧</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RealmSwift.List&lt;TrainingSetObject&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trainingdata</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数</t>
+    <rPh sb="0" eb="2">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セット数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB[training-menu]のObjectKeyと一致する</t>
+    <rPh sb="28" eb="30">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62,12 +296,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -76,9 +319,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,12 +669,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77BF510-7B31-4727-AD50-CA52A3FD017E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC931F3-F39F-435C-B788-7714135AE51E}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>46016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
